--- a/src/b2.xlsx
+++ b/src/b2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\TEC\2024 S1\VLSI\Tarea1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98F25E1-EC4B-4E66-AFDB-A748358FBE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBD9274-1109-42AA-8C1C-A53826528D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>PMOS/NMOS</t>
   </si>
@@ -67,9 +66,6 @@
     <t>Potencia Promedio</t>
   </si>
   <si>
-    <t>0.3293mW</t>
-  </si>
-  <si>
     <t>0.1276mW</t>
   </si>
   <si>
@@ -87,11 +83,21 @@
   <si>
     <t>tpdr(s)</t>
   </si>
+  <si>
+    <t>0.9290mW</t>
+  </si>
+  <si>
+    <t>diff(s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +152,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -181,37 +193,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -221,26 +208,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,6 +282,48 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Retardos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CR" sz="1600" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> vs PMOS/NMOS</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CR" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -309,10 +360,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4580665906011659E-2"/>
-          <c:y val="9.1143038994370096E-2"/>
-          <c:w val="0.89290256214333852"/>
-          <c:h val="0.75349113691125014"/>
+          <c:x val="0.17081809466194431"/>
+          <c:y val="8.8298348206855948E-2"/>
+          <c:w val="0.79566391649990487"/>
+          <c:h val="0.70626888449993508"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -447,7 +498,7 @@
             <c:numRef>
               <c:f>Hoja1!$B$3:$B$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.323E-10</c:v>
@@ -666,7 +717,7 @@
             <c:numRef>
               <c:f>Hoja1!$C$3:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>7.4809999999999998E-11</c:v>
@@ -885,7 +936,7 @@
             <c:numRef>
               <c:f>Hoja1!$D$3:$D$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.03555E-10</c:v>
@@ -990,6 +1041,8 @@
         <c:axId val="265857503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1007,6 +1060,73 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>PMOS/NMOS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49759946203237232"/>
+              <c:y val="0.90173831905821611"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1047,6 +1167,7 @@
         <c:crossAx val="1778522559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1778522559"/>
@@ -1069,7 +1190,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tiempo(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1772,15 +1952,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>35861</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>102454</xdr:rowOff>
+      <xdr:colOff>430306</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>439271</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>91567</xdr:rowOff>
+      <xdr:rowOff>71719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1803,50 +1983,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>546848</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>372897</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>145311</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07750CA7-D4F2-E3F7-B776-681632A2A2EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11017624" y="0"/>
-          <a:ext cx="6173061" cy="1400370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2117,19 +2253,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" customWidth="1"/>
     <col min="14" max="14" width="18.33203125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
@@ -2142,478 +2280,580 @@
         <v>4</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="D2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
+      <c r="I2" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="13">
         <v>1.323E-10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="13">
         <v>7.4809999999999998E-11</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="13">
         <f>(B3+C3)/2</f>
         <v>1.03555E-10</v>
       </c>
-      <c r="E3">
-        <f>MIN(D3:D28)</f>
-        <v>9.5795000000000004E-11</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="E3" s="13">
+        <f>B3-C3</f>
+        <v>5.749E-11</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="12">
         <f>(A3+0.2)</f>
         <v>1.2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="13">
         <v>1.3329999999999999E-10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="13">
         <v>6.8889999999999994E-11</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="13">
         <f t="shared" ref="D4:D34" si="0">(B4+C4)/2</f>
         <v>1.01095E-10</v>
       </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E28" si="1">B4-C4</f>
+        <v>6.441E-11</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <f t="shared" ref="A5:A27" si="1">(A4+0.2)</f>
+      <c r="A5" s="12">
+        <f t="shared" ref="A5:A27" si="2">(A4+0.2)</f>
         <v>1.4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="13">
         <v>1.2839999999999999E-10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="13">
         <v>7.0940000000000003E-11</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="13">
         <f t="shared" si="0"/>
         <v>9.9670000000000003E-11</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="11"/>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>5.7459999999999988E-11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <f t="shared" si="1"/>
+      <c r="A6" s="12">
+        <f t="shared" si="2"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="13">
         <v>1.2359999999999999E-10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="13">
         <v>7.2749999999999994E-11</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
         <v>9.8175E-11</v>
       </c>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>5.0849999999999998E-11</v>
+      </c>
       <c r="F6" s="3"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="7">
         <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <f t="shared" si="1"/>
+      <c r="A7" s="12">
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="13">
         <v>1.1989999999999999E-10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="13">
         <v>7.6420000000000006E-11</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
         <v>9.816E-11</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>4.3479999999999988E-11</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <f t="shared" si="1"/>
+      <c r="A8" s="12">
+        <f t="shared" si="2"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="13">
         <v>1.169E-10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="13">
         <v>7.6659999999999997E-11</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>9.6780000000000001E-11</v>
       </c>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0240000000000008E-11</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <f t="shared" si="1"/>
+      <c r="A9" s="12">
+        <f t="shared" si="2"/>
         <v>2.1999999999999997</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="13">
         <v>1.149E-10</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="13">
         <v>7.7539999999999998E-11</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>9.6220000000000005E-11</v>
       </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>3.7360000000000001E-11</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <f t="shared" si="1"/>
+      <c r="A10" s="14">
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="15">
         <v>1.123E-10</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="15">
         <v>7.9290000000000005E-11</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="15">
         <f>(B10+C10)/2</f>
         <v>9.5795000000000004E-11</v>
       </c>
+      <c r="E10" s="15">
+        <f t="shared" si="1"/>
+        <v>3.3009999999999998E-11</v>
+      </c>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <f t="shared" si="1"/>
+      <c r="A11" s="12">
+        <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="13">
         <v>1.1239999999999999E-10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="13">
         <v>8.1099999999999997E-11</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>9.6750000000000002E-11</v>
       </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.1299999999999998E-11</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <f t="shared" si="1"/>
+      <c r="A12" s="12">
+        <f t="shared" si="2"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="13">
         <v>1.1130000000000001E-10</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="13">
         <v>8.2969999999999999E-11</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>9.7134999999999996E-11</v>
       </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8330000000000007E-11</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
+      <c r="A13" s="12">
+        <f t="shared" si="2"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="13">
         <v>1.109E-10</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="13">
         <v>8.4909999999999994E-11</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="13">
         <f t="shared" si="0"/>
         <v>9.7904999999999997E-11</v>
       </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>2.5990000000000005E-11</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
+      <c r="A14" s="12">
+        <f t="shared" si="2"/>
         <v>3.2000000000000006</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="13">
         <v>1.096E-10</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="13">
         <v>8.6919999999999996E-11</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>9.8260000000000005E-11</v>
       </c>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
+        <v>2.2680000000000006E-11</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
+      <c r="A15" s="12">
+        <f t="shared" si="2"/>
         <v>3.4000000000000008</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="13">
         <v>1.1050000000000001E-10</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="13">
         <v>8.8879999999999994E-11</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>9.9689999999999994E-11</v>
       </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1620000000000012E-11</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <f t="shared" si="1"/>
+      <c r="A16" s="12">
+        <f t="shared" si="2"/>
         <v>3.600000000000001</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="13">
         <v>1.104E-10</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="13">
         <v>9.0900000000000004E-11</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>1.0065000000000001E-10</v>
       </c>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9499999999999997E-11</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <f t="shared" si="1"/>
+      <c r="A17" s="12">
+        <f t="shared" si="2"/>
         <v>3.8000000000000012</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="13">
         <v>1.1079999999999999E-10</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="13">
         <v>9.2830000000000004E-11</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>1.01815E-10</v>
       </c>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>1.7969999999999991E-11</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
+      <c r="A18" s="12">
+        <f t="shared" si="2"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="13">
         <v>1.111E-10</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="13">
         <v>9.4769999999999999E-11</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="13">
         <f t="shared" si="0"/>
         <v>1.0293499999999999E-10</v>
       </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>1.6329999999999997E-11</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <f t="shared" si="1"/>
+      <c r="A19" s="12">
+        <f t="shared" si="2"/>
         <v>4.2000000000000011</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="13">
         <v>1.1130000000000001E-10</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="13">
         <v>9.6560000000000001E-11</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="13">
         <f t="shared" si="0"/>
         <v>1.0393E-10</v>
       </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>1.4740000000000005E-11</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <f t="shared" si="1"/>
+      <c r="A20" s="12">
+        <f t="shared" si="2"/>
         <v>4.4000000000000012</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="13">
         <v>1.119E-10</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="13">
         <v>9.8570000000000002E-11</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="13">
         <f t="shared" si="0"/>
         <v>1.05235E-10</v>
       </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3329999999999994E-11</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <f t="shared" si="1"/>
+      <c r="A21" s="12">
+        <f t="shared" si="2"/>
         <v>4.6000000000000014</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="13">
         <v>1.1239999999999999E-10</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="13">
         <v>1.0059999999999999E-10</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="13">
         <f t="shared" si="0"/>
         <v>1.0649999999999999E-10</v>
       </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1800000000000001E-11</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <f t="shared" si="1"/>
+      <c r="A22" s="12">
+        <f t="shared" si="2"/>
         <v>4.8000000000000016</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="13">
         <v>1.135E-10</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="13">
         <v>1.025E-10</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="13">
         <f t="shared" si="0"/>
         <v>1.0799999999999999E-10</v>
       </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-11</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <f t="shared" si="1"/>
+      <c r="A23" s="12">
+        <f t="shared" si="2"/>
         <v>5.0000000000000018</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="13">
         <v>1.13E-10</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="13">
         <v>1.042E-10</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="13">
         <f t="shared" si="0"/>
         <v>1.0859999999999999E-10</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="13">
+        <f t="shared" si="1"/>
+        <v>8.799999999999998E-12</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <f t="shared" si="1"/>
+      <c r="A24" s="12">
+        <f t="shared" si="2"/>
         <v>5.200000000000002</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="13">
         <v>1.136E-10</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="13">
         <v>1.061E-10</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="13">
         <f t="shared" si="0"/>
         <v>1.0985E-10</v>
       </c>
+      <c r="E24" s="13">
+        <f t="shared" si="1"/>
+        <v>7.5E-12</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <f t="shared" si="1"/>
+      <c r="A25" s="12">
+        <f t="shared" si="2"/>
         <v>5.4000000000000021</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="13">
         <v>1.142E-10</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="13">
         <v>1.085E-10</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="13">
         <f t="shared" si="0"/>
         <v>1.1135000000000001E-10</v>
       </c>
+      <c r="E25" s="13">
+        <f t="shared" si="1"/>
+        <v>5.7000000000000036E-12</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <f t="shared" si="1"/>
+      <c r="A26" s="12">
+        <f t="shared" si="2"/>
         <v>5.6000000000000023</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="13">
         <v>1.1450000000000001E-10</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="13">
         <v>1.115E-10</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="13">
         <f t="shared" si="0"/>
         <v>1.13E-10</v>
       </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000026E-12</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <f t="shared" si="1"/>
+      <c r="A27" s="12">
+        <f t="shared" si="2"/>
         <v>5.8000000000000025</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="13">
         <v>1.155E-10</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="13">
         <v>1.136E-10</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="13">
         <f t="shared" si="0"/>
         <v>1.1455000000000001E-10</v>
       </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000012E-12</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="12">
         <f>(A27+0.2)</f>
         <v>6.0000000000000027</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="13">
         <v>1.16E-10</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="13">
         <v>1.157E-10</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="13">
         <f t="shared" si="0"/>
         <v>1.1584999999999999E-10</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000155E-13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" ref="A29:A34" si="2">(A28+0.2)</f>
+        <f t="shared" ref="A29:A34" si="3">(A28+0.2)</f>
         <v>6.2000000000000028</v>
       </c>
       <c r="D29">
@@ -2623,7 +2863,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.400000000000003</v>
       </c>
       <c r="D30">
@@ -2633,7 +2873,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6000000000000032</v>
       </c>
       <c r="B31" s="2">
@@ -2649,7 +2889,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8000000000000034</v>
       </c>
       <c r="D32">
@@ -2657,9 +2897,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000000036</v>
       </c>
       <c r="D33">
@@ -2667,9 +2907,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2000000000000037</v>
       </c>
       <c r="B34">
@@ -2683,46 +2923,76 @@
         <v>1.2155000000000001E-10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <v>4</v>
+      </c>
+      <c r="B39" s="17">
+        <v>1.155E-10</v>
+      </c>
+      <c r="C39" s="18">
+        <v>9.4700000000000006E-11</v>
+      </c>
+      <c r="D39" s="17">
+        <f>(B39+C39)/2</f>
+        <v>1.051E-10</v>
+      </c>
+      <c r="E39" s="17">
+        <f>B39-C39</f>
+        <v>2.0799999999999995E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">

--- a/src/b2.xlsx
+++ b/src/b2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\TEC\2024 S1\VLSI\Tarea1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBD9274-1109-42AA-8C1C-A53826528D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBE8E78-0D02-41E5-9CEE-4CDC6CC991E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>PMOS/NMOS</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Potencia Promedio</t>
   </si>
   <si>
-    <t>0.1276mW</t>
-  </si>
-  <si>
     <t>Optimizacion a mano</t>
   </si>
   <si>
@@ -89,6 +86,33 @@
   <si>
     <t>diff(s)</t>
   </si>
+  <si>
+    <t>Esquinas de variabilidad</t>
+  </si>
+  <si>
+    <t>Potencia(W)</t>
+  </si>
+  <si>
+    <t>Esquina</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Optimizacion Hspice</t>
+  </si>
+  <si>
+    <t>1.2763mW</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +120,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -121,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +179,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,24 +250,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -244,10 +277,26 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1391,7 +1440,758 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Variabilidad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21437270341207348"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.70954396325459312"/>
+          <c:h val="0.61986913094196561"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tpdf(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="34925">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{297EF021-F94C-4AF1-95C6-D290187F1ECA}" type="CELLREF">
+                      <a:rPr lang="en-US" sz="1000">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLREF]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-CR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{297EF021-F94C-4AF1-95C6-D290187F1ECA}</c15:txfldGUID>
+                      <c15:f>Hoja1!$A$43</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>SS</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1AAA-48DC-B57E-3BC5CE26524D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F9F2C1E2-1A0F-4D69-BDDA-0E4ED05E5A8D}" type="CELLREF">
+                      <a:rPr lang="en-US" sz="1000">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLREF]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-CR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{F9F2C1E2-1A0F-4D69-BDDA-0E4ED05E5A8D}</c15:txfldGUID>
+                      <c15:f>Hoja1!$A$44</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>FF</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1AAA-48DC-B57E-3BC5CE26524D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BF775FB0-5ADE-4EBA-8D47-F5BA5AC70D12}" type="CELLREF">
+                      <a:rPr lang="en-US" sz="1000">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLREF]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-CR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{BF775FB0-5ADE-4EBA-8D47-F5BA5AC70D12}</c15:txfldGUID>
+                      <c15:f>Hoja1!$A$45</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>FS</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1AAA-48DC-B57E-3BC5CE26524D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SF</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1AAA-48DC-B57E-3BC5CE26524D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$43:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.1549999999999999E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5140000000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.664E-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.22E-11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$43:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2740000000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4629999999999999E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8309999999999999E-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0630000000000002E-11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AAA-48DC-B57E-3BC5CE26524D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1253465087"/>
+        <c:axId val="1253462687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1253465087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.0000000000000038E-11"/>
+          <c:min val="3.0000000000000019E-11"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>tpdr(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253462687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1253462687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t> tpdf (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.0509173397442838E-2"/>
+              <c:y val="0.38910234097778279"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253465087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1947,20 +2747,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>430306</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495620</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>8968</xdr:rowOff>
+      <xdr:rowOff>30739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>110138</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>71719</xdr:rowOff>
+      <xdr:rowOff>93490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1980,6 +3296,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>573157</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>164659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0AAB94-0F27-16BF-0A17-B286352F0D60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2251,10 +3603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2279,574 +3631,574 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>1.323E-10</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>7.4809999999999998E-11</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <f>(B3+C3)/2</f>
         <v>1.03555E-10</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <f>B3-C3</f>
         <v>5.749E-11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>9</v>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <f>(A3+0.2)</f>
         <v>1.2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>1.3329999999999999E-10</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>6.8889999999999994E-11</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <f t="shared" ref="D4:D34" si="0">(B4+C4)/2</f>
         <v>1.01095E-10</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <f t="shared" ref="E4:E28" si="1">B4-C4</f>
         <v>6.441E-11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <f t="shared" ref="A5:A27" si="2">(A4+0.2)</f>
         <v>1.4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>1.2839999999999999E-10</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>7.0940000000000003E-11</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>9.9670000000000003E-11</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <f t="shared" si="1"/>
         <v>5.7459999999999988E-11</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="5"/>
+      <c r="H5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <f t="shared" si="2"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>1.2359999999999999E-10</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>7.2749999999999994E-11</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>9.8175E-11</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <f t="shared" si="1"/>
         <v>5.0849999999999998E-11</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>1.1989999999999999E-10</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>7.6420000000000006E-11</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>9.816E-11</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <f t="shared" si="1"/>
         <v>4.3479999999999988E-11</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>15</v>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <f t="shared" si="2"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>1.169E-10</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>7.6659999999999997E-11</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>9.6780000000000001E-11</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <f t="shared" si="1"/>
         <v>4.0240000000000008E-11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <f t="shared" si="2"/>
         <v>2.1999999999999997</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>1.149E-10</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>7.7539999999999998E-11</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>9.6220000000000005E-11</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <f t="shared" si="1"/>
         <v>3.7360000000000001E-11</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="11">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>1.123E-10</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>7.9290000000000005E-11</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <f>(B10+C10)/2</f>
         <v>9.5795000000000004E-11</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>3.3009999999999998E-11</v>
       </c>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>1.1239999999999999E-10</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>8.1099999999999997E-11</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>9.6750000000000002E-11</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>3.1299999999999998E-11</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <f t="shared" si="2"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>1.1130000000000001E-10</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>8.2969999999999999E-11</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>9.7134999999999996E-11</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <f t="shared" si="1"/>
         <v>2.8330000000000007E-11</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>1.109E-10</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>8.4909999999999994E-11</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>9.7904999999999997E-11</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
         <v>2.5990000000000005E-11</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <f t="shared" si="2"/>
         <v>3.2000000000000006</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>1.096E-10</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>8.6919999999999996E-11</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>9.8260000000000005E-11</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <f t="shared" si="1"/>
         <v>2.2680000000000006E-11</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <f t="shared" si="2"/>
         <v>3.4000000000000008</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>1.1050000000000001E-10</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="10">
         <v>8.8879999999999994E-11</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>9.9689999999999994E-11</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <f t="shared" si="1"/>
         <v>2.1620000000000012E-11</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <f t="shared" si="2"/>
         <v>3.600000000000001</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>1.104E-10</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>9.0900000000000004E-11</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>1.0065000000000001E-10</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <f t="shared" si="1"/>
         <v>1.9499999999999997E-11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <f t="shared" si="2"/>
         <v>3.8000000000000012</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>1.1079999999999999E-10</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="10">
         <v>9.2830000000000004E-11</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <f t="shared" si="0"/>
         <v>1.01815E-10</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <f t="shared" si="1"/>
         <v>1.7969999999999991E-11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <f t="shared" si="2"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>1.111E-10</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="10">
         <v>9.4769999999999999E-11</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <f t="shared" si="0"/>
         <v>1.0293499999999999E-10</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <f t="shared" si="1"/>
         <v>1.6329999999999997E-11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <f t="shared" si="2"/>
         <v>4.2000000000000011</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>1.1130000000000001E-10</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="10">
         <v>9.6560000000000001E-11</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
         <v>1.0393E-10</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <f t="shared" si="1"/>
         <v>1.4740000000000005E-11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <f t="shared" si="2"/>
         <v>4.4000000000000012</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>1.119E-10</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="10">
         <v>9.8570000000000002E-11</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <f t="shared" si="0"/>
         <v>1.05235E-10</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <f t="shared" si="1"/>
         <v>1.3329999999999994E-11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <f t="shared" si="2"/>
         <v>4.6000000000000014</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>1.1239999999999999E-10</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="10">
         <v>1.0059999999999999E-10</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
         <v>1.0649999999999999E-10</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <f t="shared" si="1"/>
         <v>1.1800000000000001E-11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <f t="shared" si="2"/>
         <v>4.8000000000000016</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>1.135E-10</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="10">
         <v>1.025E-10</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
         <v>1.0799999999999999E-10</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <f t="shared" si="2"/>
         <v>5.0000000000000018</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>1.13E-10</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="10">
         <v>1.042E-10</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <f t="shared" si="0"/>
         <v>1.0859999999999999E-10</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <f t="shared" si="1"/>
         <v>8.799999999999998E-12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <f t="shared" si="2"/>
         <v>5.200000000000002</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="10">
         <v>1.136E-10</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="10">
         <v>1.061E-10</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <f t="shared" si="0"/>
         <v>1.0985E-10</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="10">
         <f t="shared" si="1"/>
         <v>7.5E-12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <f t="shared" si="2"/>
         <v>5.4000000000000021</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="10">
         <v>1.142E-10</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="10">
         <v>1.085E-10</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>1.1135000000000001E-10</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="10">
         <f t="shared" si="1"/>
         <v>5.7000000000000036E-12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <f t="shared" si="2"/>
         <v>5.6000000000000023</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <v>1.1450000000000001E-10</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="10">
         <v>1.115E-10</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <f t="shared" si="0"/>
         <v>1.13E-10</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="10">
         <f t="shared" si="1"/>
         <v>3.0000000000000026E-12</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <f t="shared" si="2"/>
         <v>5.8000000000000025</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="10">
         <v>1.155E-10</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="10">
         <v>1.136E-10</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="10">
         <f t="shared" si="0"/>
         <v>1.1455000000000001E-10</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="10">
         <f t="shared" si="1"/>
         <v>1.9000000000000012E-12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <f>(A27+0.2)</f>
         <v>6.0000000000000027</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="10">
         <v>1.16E-10</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="10">
         <v>1.157E-10</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="10">
         <f t="shared" si="0"/>
         <v>1.1584999999999999E-10</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="10">
         <f t="shared" si="1"/>
         <v>3.0000000000000155E-13</v>
       </c>
@@ -2897,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="3"/>
         <v>7.0000000000000036</v>
@@ -2907,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="3"/>
         <v>7.2000000000000037</v>
@@ -2923,76 +4275,183 @@
         <v>1.2155000000000001E-10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="B38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
+      <c r="E38" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
         <v>4</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="14">
         <v>1.155E-10</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="15">
         <v>9.4700000000000006E-11</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="14">
         <f>(B39+C39)/2</f>
         <v>1.051E-10</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="14">
         <f>B39-C39</f>
         <v>2.0799999999999995E-11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="21">
+        <v>1.291E-6</v>
+      </c>
+      <c r="C43" s="21">
+        <v>5.1549999999999999E-11</v>
+      </c>
+      <c r="D43" s="21">
+        <v>3.2740000000000001E-11</v>
+      </c>
+      <c r="E43" s="22">
+        <f>(C43+D43)/2</f>
+        <v>4.2145E-11</v>
+      </c>
+      <c r="F43" s="22">
+        <f>C43-D43</f>
+        <v>1.8809999999999998E-11</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="21">
+        <v>1.068E-6</v>
+      </c>
+      <c r="C44" s="21">
+        <v>3.5140000000000001E-11</v>
+      </c>
+      <c r="D44" s="21">
+        <v>1.4629999999999999E-11</v>
+      </c>
+      <c r="E44" s="22">
+        <f t="shared" ref="E44:E46" si="4">(C44+D44)/2</f>
+        <v>2.4885E-11</v>
+      </c>
+      <c r="F44" s="22">
+        <f>C44-D44</f>
+        <v>2.0510000000000002E-11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="21">
+        <v>1.13E-6</v>
+      </c>
+      <c r="C45" s="21">
+        <v>4.664E-11</v>
+      </c>
+      <c r="D45" s="21">
+        <v>1.8309999999999999E-11</v>
+      </c>
+      <c r="E45" s="22">
+        <f t="shared" si="4"/>
+        <v>3.2474999999999996E-11</v>
+      </c>
+      <c r="F45" s="22">
+        <f t="shared" ref="F45:F46" si="5">C45-D45</f>
+        <v>2.8330000000000001E-11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="21">
+        <v>1.235E-6</v>
+      </c>
+      <c r="C46" s="21">
+        <v>4.22E-11</v>
+      </c>
+      <c r="D46" s="21">
+        <v>3.0630000000000002E-11</v>
+      </c>
+      <c r="E46" s="22">
+        <f t="shared" si="4"/>
+        <v>3.6414999999999998E-11</v>
+      </c>
+      <c r="F46" s="22">
+        <f t="shared" si="5"/>
+        <v>1.1569999999999999E-11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -3136,17 +4595,17 @@
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A41:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
